--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.041921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.041921.xlsx_with_dialog_acts.xlsx
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4771,12 +4771,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5151,12 +5151,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5227,12 +5227,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5303,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5341,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5493,12 +5493,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6101,12 +6101,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6745,12 +6745,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6897,12 +6897,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7049,12 +7049,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7315,12 +7315,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7505,12 +7505,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7657,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7885,12 +7885,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8003,12 +8003,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8813,12 +8813,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9159,12 +9159,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10071,12 +10071,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10759,12 +10759,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11063,12 +11063,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11101,12 +11101,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11177,12 +11177,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11713,12 +11713,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12093,12 +12093,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12131,12 +12131,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12355,12 +12355,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12469,12 +12469,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12583,12 +12583,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12697,12 +12697,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13229,12 +13229,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13609,12 +13609,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13647,12 +13647,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14293,12 +14293,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14369,12 +14369,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14635,12 +14635,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14787,12 +14787,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14899,12 +14899,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15165,12 +15165,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15355,12 +15355,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16309,12 +16309,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16917,12 +16917,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16959,12 +16959,12 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16997,12 +16997,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17035,12 +17035,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17149,12 +17149,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17413,12 +17413,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17489,12 +17489,12 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17641,12 +17641,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17793,12 +17793,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
